--- a/lotofacil/Bolão independencia - 30.xlsx
+++ b/lotofacil/Bolão independencia - 30.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Desktop\Bolão\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Desktop\Bolão\Bolao_Mega\lotofacil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F115D-B198-45A4-AC59-5E5BE89CA362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B91FF4-10A7-4989-99CF-DA7A8BD1B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{559E0343-25E2-4A05-885A-2136317CA539}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{559E0343-25E2-4A05-885A-2136317CA539}"/>
   </bookViews>
   <sheets>
-    <sheet name="10 cotas(3 Jogos)" sheetId="1" r:id="rId1"/>
+    <sheet name="12 cotas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,9 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -478,14 +496,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D692CDDB-136F-49EC-B6FD-1472546CE0E6}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1940,6 +1958,9 @@
       <c r="O31">
         <v>19</v>
       </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
